--- a/mount/node-red/template/template-en.xlsx
+++ b/mount/node-red/template/template-en.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
@@ -45,19 +45,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Input must be under 63 characters and can include Chinese, letters, numbers, and underscores.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -69,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -87,7 +75,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>int
+          <t>integer
 long
 double
 float
@@ -97,7 +85,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -170,7 +158,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <r>
       <rPr>
@@ -180,40 +168,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>FolderPath(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Required</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FileName(</t>
+      <t>FilePath(</t>
     </r>
     <r>
       <rPr>
@@ -1062,6 +1017,13 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1314,30 +1276,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="28.875" customWidth="1"/>
-    <col min="2" max="2" width="30.25" customWidth="1"/>
-    <col min="3" max="3" width="31.125" customWidth="1"/>
-    <col min="4" max="4" width="33.875" customWidth="1"/>
-    <col min="5" max="5" width="31.75" customWidth="1"/>
-    <col min="6" max="6" width="34.875" customWidth="1"/>
+    <col min="2" max="2" width="31.125" customWidth="1"/>
+    <col min="3" max="3" width="33.875" customWidth="1"/>
+    <col min="4" max="4" width="31.75" customWidth="1"/>
+    <col min="5" max="5" width="34.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28" customHeight="1" spans="1:6">
+    <row r="1" ht="28" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -1345,9 +1306,6 @@
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
